--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1358,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1381,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1404,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1427,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1450,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1519,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1565,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1588,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1611,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1634,7 +1634,7 @@
         <v>12</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1657,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1680,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1703,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1749,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1772,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1795,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1818,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1841,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1864,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1887,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1910,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1933,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1956,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1979,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2002,7 +2002,7 @@
         <v>14</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,225 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>LASTRE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>NAMIGTLE</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>URBANO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>XILCAHUA</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>PIMENTEL</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>IXTLA</t>
+  </si>
+  <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>ATENEA</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>ARLET</t>
+  </si>
+  <si>
+    <t>JESUS URIEL</t>
+  </si>
+  <si>
+    <t>ISYSS MONSERRATH</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>MARIAM GUADALUPE</t>
+  </si>
+  <si>
+    <t>ELIEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAHIR</t>
+  </si>
+  <si>
+    <t>ESTEFANI</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>INGRID</t>
+  </si>
+  <si>
+    <t>JAHEL</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>JAROMI YAJAIRA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
+    <t>AMERICA MICHELLE</t>
+  </si>
+  <si>
+    <t>YAMILE</t>
+  </si>
+  <si>
+    <t>MARIA MAGDALENA</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
   </si>
 </sst>
 </file>
@@ -684,16 +903,19 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>63.41</v>
+      </c>
+      <c r="H2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -782,16 +1004,19 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -885,7 +1110,7 @@
         <v>80.48999999999999</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -989,7 +1214,7 @@
         <v>58.33</v>
       </c>
       <c r="H6">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1025,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1058,6 +1283,650 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920341</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920345</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920350</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920353</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920355</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920382</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920357</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920039</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920040</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920097</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920286</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>20330051920295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>20330051920299</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>20330051920301</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>Mat</t>
   </si>
@@ -85,6 +85,30 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>BERISTAIN</t>
   </si>
   <si>
@@ -97,9 +121,6 @@
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
@@ -109,33 +130,9 @@
     <t>GERARDO</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
     <t>NAMIGTLE</t>
   </si>
   <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>URBANO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
     <t>RIVERA</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>AMADOR</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>ALFONSO</t>
   </si>
   <si>
@@ -157,6 +151,24 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
@@ -169,36 +181,15 @@
     <t>CARRERA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>PIMENTEL</t>
   </si>
   <si>
     <t>CASTRO</t>
   </si>
   <si>
-    <t>AGUIRRE</t>
-  </si>
-  <si>
-    <t>IXTLA</t>
-  </si>
-  <si>
-    <t>ESTRELLA</t>
-  </si>
-  <si>
     <t>MOLOHUA</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>PORRAS</t>
   </si>
   <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
     <t>OSORIO</t>
   </si>
   <si>
@@ -220,6 +208,27 @@
     <t>MONTERROSAS</t>
   </si>
   <si>
+    <t>EDGAR DANIEL</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>ARANTZA</t>
+  </si>
+  <si>
+    <t>JOSELIN GUADALUPE</t>
+  </si>
+  <si>
     <t>JOSE ISAIAS</t>
   </si>
   <si>
@@ -244,39 +253,9 @@
     <t>EDUARDO</t>
   </si>
   <si>
-    <t>MARIAM GUADALUPE</t>
-  </si>
-  <si>
-    <t>ELIEL</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
-    <t>ESTEFANI</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>INGRID</t>
-  </si>
-  <si>
-    <t>JAHEL</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
     <t>JAROMI YAJAIRA</t>
   </si>
   <si>
@@ -284,12 +263,6 @@
   </si>
   <si>
     <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>ROSA ISELA</t>
   </si>
   <si>
     <t>AMERICA MICHELLE</t>
@@ -731,19 +704,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -929,16 +902,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1124,19 +1100,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1250,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1285,22 +1261,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920374</v>
+        <v>20330051920339</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1308,22 +1284,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920223</v>
+        <v>20330051920381</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1331,22 +1307,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920233</v>
+        <v>20330051920178</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1354,22 +1330,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920238</v>
+        <v>20330051920097</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1377,22 +1353,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920252</v>
+        <v>20330051920107</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1400,22 +1376,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920259</v>
+        <v>20330051920284</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1423,22 +1399,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920341</v>
+        <v>20330051920310</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1446,22 +1422,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920343</v>
+        <v>20330051920313</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1469,154 +1445,154 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920344</v>
+        <v>20330051920374</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920345</v>
+        <v>20330051920223</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920348</v>
+        <v>20330051920233</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920349</v>
+        <v>20330051920238</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920350</v>
+        <v>20330051920252</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920352</v>
+        <v>20330051920259</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920353</v>
+        <v>20330051920341</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1625,21 +1601,21 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920354</v>
+        <v>20330051920343</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1648,21 +1624,21 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920355</v>
+        <v>20330051920349</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1671,260 +1647,168 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920382</v>
+        <v>20330051920180</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920357</v>
+        <v>20330051920039</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920180</v>
+        <v>20330051920040</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920039</v>
+        <v>20330051920286</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20330051920040</v>
+        <v>20330051920295</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20330051920097</v>
+        <v>20330051920299</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>20330051920107</v>
+        <v>20330051920301</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920286</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920295</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>20330051920299</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>20330051920301</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>Mat</t>
   </si>
@@ -109,6 +109,9 @@
     <t>TORRES</t>
   </si>
   <si>
+    <t>LADINO</t>
+  </si>
+  <si>
     <t>BERISTAIN</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>URBINA</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
   </si>
   <si>
     <t>JOSELIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
   </si>
   <si>
     <t>JOSE ISAIAS</t>
@@ -1226,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1267,10 +1276,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1293,7 +1302,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1313,10 +1322,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1336,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1362,7 +1371,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1382,10 +1391,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1405,10 +1414,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1428,10 +1437,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1445,39 +1454,39 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920374</v>
+        <v>18330051920213</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920223</v>
+        <v>20330051920374</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1491,16 +1500,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920233</v>
+        <v>20330051920223</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1514,16 +1523,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920238</v>
+        <v>20330051920233</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1537,16 +1546,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920252</v>
+        <v>20330051920238</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1560,16 +1569,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920259</v>
+        <v>20330051920252</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1583,22 +1592,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920341</v>
+        <v>20330051920259</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1606,16 +1615,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920343</v>
+        <v>20330051920341</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1629,16 +1638,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920349</v>
+        <v>20330051920343</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1652,22 +1661,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920180</v>
+        <v>20330051920349</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1675,22 +1684,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920039</v>
+        <v>20330051920180</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1698,16 +1707,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920040</v>
+        <v>20330051920039</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1721,22 +1730,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920286</v>
+        <v>20330051920040</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1744,16 +1753,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20330051920295</v>
+        <v>20330051920286</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1767,16 +1776,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20330051920299</v>
+        <v>20330051920295</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1790,16 +1799,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>20330051920301</v>
+        <v>20330051920299</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1808,6 +1817,29 @@
         <v>14</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>Mat</t>
   </si>
@@ -97,33 +97,33 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>LASTRE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>LASTRE</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
@@ -142,9 +142,6 @@
     <t>ALVAREZ</t>
   </si>
   <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
     <t>ALFONSO</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>CONCHE</t>
   </si>
   <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
     <t>OSORIO</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>ALDAIR ALAN</t>
   </si>
   <si>
-    <t>ROSA ISELA</t>
-  </si>
-  <si>
     <t>ISRAEL</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
   </si>
   <si>
     <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>FRANCISCO ALAN</t>
   </si>
   <si>
     <t>AMERICA MICHELLE</t>
@@ -765,10 +753,10 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>21</v>
@@ -963,19 +951,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>51.43</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1161,16 +1149,16 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>62.86</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -1235,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -1299,10 +1287,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1322,10 +1310,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1345,10 +1333,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1362,22 +1350,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920107</v>
+        <v>20330051920284</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1385,7 +1373,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920284</v>
+        <v>20330051920310</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1394,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1408,7 +1396,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920310</v>
+        <v>20330051920313</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1417,7 +1405,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1431,7 +1419,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920313</v>
+        <v>18330051920213</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1440,13 +1428,13 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1454,7 +1442,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920213</v>
+        <v>20330051920374</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1463,21 +1451,21 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920374</v>
+        <v>20330051920223</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -1486,7 +1474,7 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1500,7 +1488,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920223</v>
+        <v>20330051920233</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1509,7 +1497,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1523,7 +1511,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920233</v>
+        <v>20330051920238</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1532,7 +1520,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1546,16 +1534,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920238</v>
+        <v>20330051920252</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1569,16 +1557,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920252</v>
+        <v>20330051920259</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1592,22 +1580,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920259</v>
+        <v>20330051920341</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1615,16 +1603,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920341</v>
+        <v>20330051920343</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1638,16 +1626,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920343</v>
+        <v>20330051920349</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1661,22 +1649,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920349</v>
+        <v>20330051920180</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1684,22 +1672,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920180</v>
+        <v>20330051920039</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1707,22 +1695,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920039</v>
+        <v>20330051920286</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1730,22 +1718,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920040</v>
+        <v>20330051920295</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1753,16 +1741,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20330051920286</v>
+        <v>20330051920299</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1776,16 +1764,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20330051920295</v>
+        <v>20330051920301</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1794,52 +1782,6 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920299</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920301</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
         <v>1</v>
       </c>
     </row>
